--- a/template_nilai_IPA.xlsx
+++ b/template_nilai_IPA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7530"/>
+    <workbookView windowWidth="10245" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="XII IPA SEMUA MAPEL" sheetId="4" r:id="rId1"/>
@@ -1094,8 +1094,8 @@
   <sheetPr/>
   <dimension ref="A1:CA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AN4" workbookViewId="0">
-      <selection activeCell="BY18" sqref="BY18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -1442,7 +1442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:79">
+    <row r="5" ht="12.75" spans="1:79">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="8"/>
@@ -1523,7 +1523,7 @@
       <c r="BZ5" s="17"/>
       <c r="CA5" s="18"/>
     </row>
-    <row r="6" spans="1:79">
+    <row r="6" ht="12.75" spans="1:79">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
@@ -1604,7 +1604,7 @@
       <c r="BZ6" s="17"/>
       <c r="CA6" s="18"/>
     </row>
-    <row r="7" spans="1:79">
+    <row r="7" ht="12.75" spans="1:79">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
@@ -1685,7 +1685,7 @@
       <c r="BZ7" s="17"/>
       <c r="CA7" s="18"/>
     </row>
-    <row r="8" spans="1:79">
+    <row r="8" ht="12.75" spans="1:79">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="8"/>
@@ -1766,7 +1766,7 @@
       <c r="BZ8" s="17"/>
       <c r="CA8" s="18"/>
     </row>
-    <row r="9" spans="1:79">
+    <row r="9" ht="12.75" spans="1:79">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
@@ -1847,7 +1847,7 @@
       <c r="BZ9" s="17"/>
       <c r="CA9" s="18"/>
     </row>
-    <row r="10" spans="1:79">
+    <row r="10" ht="12.75" spans="1:79">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -1928,7 +1928,7 @@
       <c r="BZ10" s="17"/>
       <c r="CA10" s="18"/>
     </row>
-    <row r="11" spans="1:79">
+    <row r="11" ht="12.75" spans="1:79">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -2009,7 +2009,7 @@
       <c r="BZ11" s="17"/>
       <c r="CA11" s="18"/>
     </row>
-    <row r="12" spans="1:79">
+    <row r="12" ht="12.75" spans="1:79">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -2090,7 +2090,7 @@
       <c r="BZ12" s="17"/>
       <c r="CA12" s="18"/>
     </row>
-    <row r="13" spans="1:79">
+    <row r="13" ht="12.75" spans="1:79">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -2171,7 +2171,7 @@
       <c r="BZ13" s="17"/>
       <c r="CA13" s="18"/>
     </row>
-    <row r="14" spans="1:79">
+    <row r="14" ht="12.75" spans="1:79">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
@@ -2252,7 +2252,7 @@
       <c r="BZ14" s="17"/>
       <c r="CA14" s="18"/>
     </row>
-    <row r="15" spans="1:79">
+    <row r="15" ht="12.75" spans="1:79">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
@@ -2333,7 +2333,7 @@
       <c r="BZ15" s="17"/>
       <c r="CA15" s="18"/>
     </row>
-    <row r="16" spans="1:79">
+    <row r="16" ht="12.75" spans="1:79">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -2414,7 +2414,7 @@
       <c r="BZ16" s="17"/>
       <c r="CA16" s="18"/>
     </row>
-    <row r="17" spans="1:79">
+    <row r="17" ht="12.75" spans="1:79">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
@@ -2495,7 +2495,7 @@
       <c r="BZ17" s="17"/>
       <c r="CA17" s="18"/>
     </row>
-    <row r="18" spans="1:79">
+    <row r="18" ht="12.75" spans="1:79">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
@@ -2576,7 +2576,7 @@
       <c r="BZ18" s="17"/>
       <c r="CA18" s="18"/>
     </row>
-    <row r="19" spans="1:79">
+    <row r="19" ht="12.75" spans="1:79">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
@@ -2657,7 +2657,7 @@
       <c r="BZ19" s="17"/>
       <c r="CA19" s="18"/>
     </row>
-    <row r="20" spans="1:79">
+    <row r="20" ht="12.75" spans="1:79">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
@@ -2738,7 +2738,7 @@
       <c r="BZ20" s="17"/>
       <c r="CA20" s="18"/>
     </row>
-    <row r="21" spans="1:79">
+    <row r="21" ht="12.75" spans="1:79">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
@@ -2819,7 +2819,7 @@
       <c r="BZ21" s="17"/>
       <c r="CA21" s="18"/>
     </row>
-    <row r="22" spans="1:79">
+    <row r="22" ht="12.75" spans="1:79">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
@@ -2900,7 +2900,7 @@
       <c r="BZ22" s="17"/>
       <c r="CA22" s="18"/>
     </row>
-    <row r="23" spans="1:79">
+    <row r="23" ht="12.75" spans="1:79">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
@@ -2981,7 +2981,7 @@
       <c r="BZ23" s="17"/>
       <c r="CA23" s="18"/>
     </row>
-    <row r="24" spans="1:79">
+    <row r="24" ht="12.75" spans="1:79">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
@@ -3062,7 +3062,7 @@
       <c r="BZ24" s="17"/>
       <c r="CA24" s="18"/>
     </row>
-    <row r="25" spans="1:79">
+    <row r="25" ht="12.75" spans="1:79">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
@@ -3143,7 +3143,7 @@
       <c r="BZ25" s="17"/>
       <c r="CA25" s="18"/>
     </row>
-    <row r="26" spans="1:79">
+    <row r="26" ht="12.75" spans="1:79">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
@@ -3224,7 +3224,7 @@
       <c r="BZ26" s="17"/>
       <c r="CA26" s="18"/>
     </row>
-    <row r="27" spans="1:79">
+    <row r="27" ht="12.75" spans="1:79">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
@@ -3305,7 +3305,7 @@
       <c r="BZ27" s="17"/>
       <c r="CA27" s="18"/>
     </row>
-    <row r="28" spans="1:79">
+    <row r="28" ht="12.75" spans="1:79">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="8"/>
@@ -3386,7 +3386,7 @@
       <c r="BZ28" s="17"/>
       <c r="CA28" s="18"/>
     </row>
-    <row r="29" spans="1:79">
+    <row r="29" ht="12.75" spans="1:79">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="8"/>
@@ -3467,7 +3467,7 @@
       <c r="BZ29" s="17"/>
       <c r="CA29" s="18"/>
     </row>
-    <row r="30" spans="1:79">
+    <row r="30" ht="12.75" spans="1:79">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
@@ -3548,7 +3548,7 @@
       <c r="BZ30" s="17"/>
       <c r="CA30" s="18"/>
     </row>
-    <row r="31" spans="1:79">
+    <row r="31" ht="12.75" spans="1:79">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="8"/>
@@ -3629,7 +3629,7 @@
       <c r="BZ31" s="17"/>
       <c r="CA31" s="18"/>
     </row>
-    <row r="32" spans="1:79">
+    <row r="32" ht="12.75" spans="1:79">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="8"/>
@@ -3710,7 +3710,7 @@
       <c r="BZ32" s="17"/>
       <c r="CA32" s="18"/>
     </row>
-    <row r="33" spans="1:79">
+    <row r="33" ht="12.75" spans="1:79">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="8"/>
@@ -3791,7 +3791,7 @@
       <c r="BZ33" s="17"/>
       <c r="CA33" s="18"/>
     </row>
-    <row r="34" spans="1:79">
+    <row r="34" ht="12.75" spans="1:79">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="8"/>
@@ -3872,7 +3872,7 @@
       <c r="BZ34" s="17"/>
       <c r="CA34" s="18"/>
     </row>
-    <row r="35" spans="1:79">
+    <row r="35" ht="12.75" spans="1:79">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="8"/>
@@ -3953,7 +3953,7 @@
       <c r="BZ35" s="17"/>
       <c r="CA35" s="18"/>
     </row>
-    <row r="36" spans="1:79">
+    <row r="36" ht="12.75" spans="1:79">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="8"/>
@@ -4034,7 +4034,7 @@
       <c r="BZ36" s="17"/>
       <c r="CA36" s="18"/>
     </row>
-    <row r="37" spans="1:79">
+    <row r="37" ht="12.75" spans="1:79">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="8"/>

--- a/template_nilai_IPA.xlsx
+++ b/template_nilai_IPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamyo\Code Box\srjk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94E4F85-1FE6-463B-9B47-53EF36F7851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC75D990-2744-42CB-9E22-B01BF9AEA4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
   <si>
     <t>NO.</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>JURUSAN</t>
-  </si>
-  <si>
-    <t>RUMPUN JURUSAN</t>
   </si>
 </sst>
 </file>
@@ -219,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,13 +249,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BX37"/>
+  <dimension ref="A1:BW37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BW24" sqref="BW24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
@@ -494,108 +506,106 @@
     <col min="73" max="73" width="9.1796875"/>
     <col min="74" max="74" width="43.26953125" style="1" customWidth="1"/>
     <col min="75" max="75" width="23.81640625" style="1" customWidth="1"/>
-    <col min="76" max="76" width="28.81640625" style="1" customWidth="1"/>
-    <col min="77" max="16382" width="9.1796875"/>
-    <col min="16383" max="16384" width="9.1796875" customWidth="1"/>
+    <col min="76" max="16381" width="9.1796875"/>
+    <col min="16382" max="16384" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="12" customHeight="1"/>
-    <row r="2" spans="1:76" ht="12.5"/>
-    <row r="3" spans="1:76" ht="12.5">
-      <c r="A3" s="13" t="s">
+    <row r="1" spans="1:75" ht="12" customHeight="1"/>
+    <row r="2" spans="1:75" ht="12.5"/>
+    <row r="3" spans="1:75" ht="12.5">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12" t="s">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12" t="s">
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12" t="s">
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="BH3" s="12"/>
-      <c r="BI3" s="12"/>
-      <c r="BJ3" s="12"/>
-      <c r="BK3" s="12"/>
-      <c r="BL3" s="12"/>
-      <c r="BM3" s="12"/>
-      <c r="BN3" s="12"/>
-      <c r="BO3" s="12"/>
-      <c r="BP3" s="12"/>
-      <c r="BQ3" s="12"/>
-      <c r="BR3" s="12"/>
-      <c r="BS3" s="12"/>
-      <c r="BT3" s="12"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
       <c r="BU3" s="9"/>
       <c r="BV3" s="10"/>
       <c r="BW3" s="10"/>
-      <c r="BX3" s="10"/>
     </row>
-    <row r="4" spans="1:76" ht="73.5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:75" ht="73.5">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -815,89 +825,225 @@
       <c r="BW4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BX4" s="11" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="5" spans="1:76" ht="12.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
-      <c r="BQ5" s="2"/>
-      <c r="BR5" s="2"/>
-      <c r="BS5" s="2"/>
-      <c r="BT5" s="2"/>
-      <c r="BU5" s="9"/>
-      <c r="BV5" s="10"/>
-      <c r="BW5" s="10"/>
-      <c r="BX5" s="10"/>
+    <row r="5" spans="1:75" s="15" customFormat="1" ht="13" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16">
+        <v>81</v>
+      </c>
+      <c r="D5" s="16">
+        <v>81</v>
+      </c>
+      <c r="E5" s="16">
+        <v>81</v>
+      </c>
+      <c r="F5" s="16">
+        <v>72</v>
+      </c>
+      <c r="G5" s="16">
+        <v>78</v>
+      </c>
+      <c r="H5" s="16">
+        <v>74</v>
+      </c>
+      <c r="I5" s="16">
+        <v>75</v>
+      </c>
+      <c r="J5" s="16">
+        <v>75</v>
+      </c>
+      <c r="K5" s="16">
+        <v>77</v>
+      </c>
+      <c r="L5" s="16">
+        <v>72</v>
+      </c>
+      <c r="M5" s="16">
+        <v>77</v>
+      </c>
+      <c r="N5" s="16">
+        <v>75</v>
+      </c>
+      <c r="O5" s="16">
+        <v>75</v>
+      </c>
+      <c r="P5" s="16">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>84</v>
+      </c>
+      <c r="R5" s="2">
+        <v>82</v>
+      </c>
+      <c r="S5" s="2">
+        <v>82</v>
+      </c>
+      <c r="T5" s="2">
+        <v>74</v>
+      </c>
+      <c r="U5" s="2">
+        <v>82</v>
+      </c>
+      <c r="V5" s="2">
+        <v>76</v>
+      </c>
+      <c r="W5" s="2">
+        <v>77</v>
+      </c>
+      <c r="X5" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>78</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>78</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>88</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>86</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>88</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>80</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>84</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>83</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>84</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>87</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>83</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>82</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>83</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>81</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>81</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>82</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>90</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>85</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>89</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>85</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>86</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>92</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>86</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>89</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>85</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>85</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>85</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>82</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>81</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>83</v>
+      </c>
+      <c r="BU5" s="18"/>
+      <c r="BV5" s="19"/>
+      <c r="BW5" s="19"/>
     </row>
-    <row r="6" spans="1:76" ht="12.5">
+    <row r="6" spans="1:75" ht="12.5">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
@@ -973,9 +1119,8 @@
       <c r="BU6" s="9"/>
       <c r="BV6" s="10"/>
       <c r="BW6" s="10"/>
-      <c r="BX6" s="10"/>
     </row>
-    <row r="7" spans="1:76" ht="12.5">
+    <row r="7" spans="1:75" ht="12.5">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="C7" s="2"/>
@@ -1051,9 +1196,8 @@
       <c r="BU7" s="9"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BX7" s="10"/>
     </row>
-    <row r="8" spans="1:76" ht="12.5">
+    <row r="8" spans="1:75" ht="12.5">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="2"/>
@@ -1129,9 +1273,8 @@
       <c r="BU8" s="9"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BX8" s="10"/>
     </row>
-    <row r="9" spans="1:76" ht="12.5">
+    <row r="9" spans="1:75" ht="12.5">
       <c r="A9" s="2"/>
       <c r="B9" s="5"/>
       <c r="C9" s="2"/>
@@ -1207,9 +1350,8 @@
       <c r="BU9" s="9"/>
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
-      <c r="BX9" s="10"/>
     </row>
-    <row r="10" spans="1:76" ht="12.5">
+    <row r="10" spans="1:75" ht="12.5">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="C10" s="2"/>
@@ -1285,9 +1427,8 @@
       <c r="BU10" s="9"/>
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
-      <c r="BX10" s="10"/>
     </row>
-    <row r="11" spans="1:76" ht="12.5">
+    <row r="11" spans="1:75" ht="12.5">
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
@@ -1363,9 +1504,8 @@
       <c r="BU11" s="9"/>
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
-      <c r="BX11" s="10"/>
     </row>
-    <row r="12" spans="1:76" ht="12.5">
+    <row r="12" spans="1:75" ht="12.5">
       <c r="A12" s="2"/>
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
@@ -1441,9 +1581,8 @@
       <c r="BU12" s="9"/>
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
-      <c r="BX12" s="10"/>
     </row>
-    <row r="13" spans="1:76" ht="12.5">
+    <row r="13" spans="1:75" ht="12.5">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2"/>
@@ -1519,9 +1658,8 @@
       <c r="BU13" s="9"/>
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
-      <c r="BX13" s="10"/>
     </row>
-    <row r="14" spans="1:76" ht="12.5">
+    <row r="14" spans="1:75" ht="12.5">
       <c r="A14" s="2"/>
       <c r="B14" s="5"/>
       <c r="C14" s="2"/>
@@ -1597,9 +1735,8 @@
       <c r="BU14" s="9"/>
       <c r="BV14" s="10"/>
       <c r="BW14" s="10"/>
-      <c r="BX14" s="10"/>
     </row>
-    <row r="15" spans="1:76" ht="12.5">
+    <row r="15" spans="1:75" ht="12.5">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
@@ -1675,9 +1812,8 @@
       <c r="BU15" s="9"/>
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
-      <c r="BX15" s="10"/>
     </row>
-    <row r="16" spans="1:76" ht="12.5">
+    <row r="16" spans="1:75" ht="12.5">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
       <c r="C16" s="2"/>
@@ -1753,9 +1889,8 @@
       <c r="BU16" s="9"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BX16" s="10"/>
     </row>
-    <row r="17" spans="1:76" ht="12.5">
+    <row r="17" spans="1:75" ht="12.5">
       <c r="A17" s="2"/>
       <c r="B17" s="5"/>
       <c r="C17" s="2"/>
@@ -1831,9 +1966,8 @@
       <c r="BU17" s="9"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BX17" s="10"/>
     </row>
-    <row r="18" spans="1:76" ht="12.5">
+    <row r="18" spans="1:75" ht="12.5">
       <c r="A18" s="2"/>
       <c r="B18" s="5"/>
       <c r="C18" s="2"/>
@@ -1909,9 +2043,8 @@
       <c r="BU18" s="9"/>
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
-      <c r="BX18" s="10"/>
     </row>
-    <row r="19" spans="1:76" ht="12.5">
+    <row r="19" spans="1:75" ht="12.5">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
@@ -1987,9 +2120,8 @@
       <c r="BU19" s="9"/>
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
-      <c r="BX19" s="10"/>
     </row>
-    <row r="20" spans="1:76" ht="12.5">
+    <row r="20" spans="1:75" ht="12.5">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
@@ -2065,9 +2197,8 @@
       <c r="BU20" s="9"/>
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
-      <c r="BX20" s="10"/>
     </row>
-    <row r="21" spans="1:76" ht="12.5">
+    <row r="21" spans="1:75" ht="12.5">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
@@ -2143,9 +2274,8 @@
       <c r="BU21" s="9"/>
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
-      <c r="BX21" s="10"/>
     </row>
-    <row r="22" spans="1:76" ht="12.5">
+    <row r="22" spans="1:75" ht="12.5">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
@@ -2221,9 +2351,8 @@
       <c r="BU22" s="9"/>
       <c r="BV22" s="10"/>
       <c r="BW22" s="10"/>
-      <c r="BX22" s="10"/>
     </row>
-    <row r="23" spans="1:76" ht="12.5">
+    <row r="23" spans="1:75" ht="12.5">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
@@ -2299,9 +2428,8 @@
       <c r="BU23" s="9"/>
       <c r="BV23" s="10"/>
       <c r="BW23" s="10"/>
-      <c r="BX23" s="10"/>
     </row>
-    <row r="24" spans="1:76" ht="12.5">
+    <row r="24" spans="1:75" ht="12.5">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
@@ -2377,9 +2505,8 @@
       <c r="BU24" s="9"/>
       <c r="BV24" s="10"/>
       <c r="BW24" s="10"/>
-      <c r="BX24" s="10"/>
     </row>
-    <row r="25" spans="1:76" ht="12.5">
+    <row r="25" spans="1:75" ht="12.5">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="2"/>
@@ -2455,9 +2582,8 @@
       <c r="BU25" s="9"/>
       <c r="BV25" s="10"/>
       <c r="BW25" s="10"/>
-      <c r="BX25" s="10"/>
     </row>
-    <row r="26" spans="1:76" ht="12.5">
+    <row r="26" spans="1:75" ht="12.5">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
@@ -2533,9 +2659,8 @@
       <c r="BU26" s="9"/>
       <c r="BV26" s="10"/>
       <c r="BW26" s="10"/>
-      <c r="BX26" s="10"/>
     </row>
-    <row r="27" spans="1:76" ht="12.5">
+    <row r="27" spans="1:75" ht="12.5">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="2"/>
@@ -2611,9 +2736,8 @@
       <c r="BU27" s="9"/>
       <c r="BV27" s="10"/>
       <c r="BW27" s="10"/>
-      <c r="BX27" s="10"/>
     </row>
-    <row r="28" spans="1:76" ht="12.5">
+    <row r="28" spans="1:75" ht="12.5">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
@@ -2689,9 +2813,8 @@
       <c r="BU28" s="9"/>
       <c r="BV28" s="10"/>
       <c r="BW28" s="10"/>
-      <c r="BX28" s="10"/>
     </row>
-    <row r="29" spans="1:76" ht="12.5">
+    <row r="29" spans="1:75" ht="12.5">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="2"/>
@@ -2767,9 +2890,8 @@
       <c r="BU29" s="9"/>
       <c r="BV29" s="10"/>
       <c r="BW29" s="10"/>
-      <c r="BX29" s="10"/>
     </row>
-    <row r="30" spans="1:76" ht="12.5">
+    <row r="30" spans="1:75" ht="12.5">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
@@ -2845,9 +2967,8 @@
       <c r="BU30" s="9"/>
       <c r="BV30" s="10"/>
       <c r="BW30" s="10"/>
-      <c r="BX30" s="10"/>
     </row>
-    <row r="31" spans="1:76" ht="12.5">
+    <row r="31" spans="1:75" ht="12.5">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="2"/>
@@ -2923,9 +3044,8 @@
       <c r="BU31" s="9"/>
       <c r="BV31" s="10"/>
       <c r="BW31" s="10"/>
-      <c r="BX31" s="10"/>
     </row>
-    <row r="32" spans="1:76" ht="12.5">
+    <row r="32" spans="1:75" ht="12.5">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
@@ -3001,9 +3121,8 @@
       <c r="BU32" s="9"/>
       <c r="BV32" s="10"/>
       <c r="BW32" s="10"/>
-      <c r="BX32" s="10"/>
     </row>
-    <row r="33" spans="1:76" ht="12.5">
+    <row r="33" spans="1:75" ht="12.5">
       <c r="A33" s="2"/>
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
@@ -3079,9 +3198,8 @@
       <c r="BU33" s="9"/>
       <c r="BV33" s="10"/>
       <c r="BW33" s="10"/>
-      <c r="BX33" s="10"/>
     </row>
-    <row r="34" spans="1:76" ht="12.5">
+    <row r="34" spans="1:75" ht="12.5">
       <c r="A34" s="2"/>
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
@@ -3157,9 +3275,8 @@
       <c r="BU34" s="9"/>
       <c r="BV34" s="10"/>
       <c r="BW34" s="10"/>
-      <c r="BX34" s="10"/>
     </row>
-    <row r="35" spans="1:76" ht="12.5">
+    <row r="35" spans="1:75" ht="12.5">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
@@ -3235,9 +3352,8 @@
       <c r="BU35" s="9"/>
       <c r="BV35" s="10"/>
       <c r="BW35" s="10"/>
-      <c r="BX35" s="10"/>
     </row>
-    <row r="36" spans="1:76" ht="12.5">
+    <row r="36" spans="1:75" ht="12.5">
       <c r="A36" s="2"/>
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
@@ -3313,9 +3429,8 @@
       <c r="BU36" s="9"/>
       <c r="BV36" s="10"/>
       <c r="BW36" s="10"/>
-      <c r="BX36" s="10"/>
     </row>
-    <row r="37" spans="1:76" ht="12.5">
+    <row r="37" spans="1:75" ht="12.5">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
@@ -3391,20 +3506,19 @@
       <c r="BU37" s="9"/>
       <c r="BV37" s="10"/>
       <c r="BW37" s="10"/>
-      <c r="BX37" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BV36">
     <sortCondition ref="B5:B36"/>
   </sortState>
   <mergeCells count="7">
+    <mergeCell ref="AS3:BF3"/>
+    <mergeCell ref="BG3:BT3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:P3"/>
     <mergeCell ref="Q3:AD3"/>
     <mergeCell ref="AE3:AR3"/>
-    <mergeCell ref="AS3:BF3"/>
-    <mergeCell ref="BG3:BT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
